--- a/solutions/azure/network/virtual-wan-global/presales/infrastructure-costs.xlsx
+++ b/solutions/azure/network/virtual-wan-global/presales/infrastructure-costs.xlsx
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$6</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 22, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="38" t="inlineStr">
@@ -987,7 +987,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="40" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="41" t="inlineStr">
@@ -1019,7 +1019,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B5" s="38" t="inlineStr">
@@ -1051,7 +1051,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="40" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B6" s="41" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B7" s="38" t="inlineStr">
@@ -1115,7 +1115,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="40" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B8" s="41" t="inlineStr">
@@ -1287,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1376,7 +1376,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="48" t="inlineStr">
@@ -1474,7 +1474,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B5" s="44" t="inlineStr">
@@ -1523,7 +1523,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -1572,7 +1572,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B7" s="44" t="inlineStr">
@@ -1621,7 +1621,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B8" s="48" t="inlineStr">
@@ -1766,428 +1766,36 @@
       </c>
     </row>
     <row r="11" ht="26" customHeight="1">
-      <c r="A11" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B11" s="44" t="inlineStr">
-        <is>
-          <t>Network Discovery</t>
-        </is>
-      </c>
-      <c r="C11" s="44" t="inlineStr">
-        <is>
-          <t>Assess current network topology and requirements</t>
-        </is>
-      </c>
-      <c r="D11" s="45" t="n">
-        <v>40</v>
-      </c>
-      <c r="E11" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F11" s="46" t="n">
-        <v>200</v>
-      </c>
-      <c r="G11" s="46">
-        <f>D11*F11</f>
-        <v/>
-      </c>
-      <c r="H11" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I11" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J11" s="46">
-        <f>G11</f>
-        <v/>
-      </c>
-      <c r="K11" s="44" t="inlineStr">
-        <is>
-          <t>One-time assessment</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="26" customHeight="1">
-      <c r="A12" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B12" s="48" t="inlineStr">
-        <is>
-          <t>Architecture Design</t>
-        </is>
-      </c>
-      <c r="C12" s="48" t="inlineStr">
-        <is>
-          <t>Virtual WAN hub design and branch strategy</t>
-        </is>
-      </c>
-      <c r="D12" s="49" t="n">
-        <v>60</v>
-      </c>
-      <c r="E12" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F12" s="50" t="n">
-        <v>250</v>
-      </c>
-      <c r="G12" s="50">
-        <f>D12*F12</f>
-        <v/>
-      </c>
-      <c r="H12" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I12" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J12" s="50">
-        <f>G12</f>
-        <v/>
-      </c>
-      <c r="K12" s="48" t="inlineStr">
-        <is>
-          <t>One-time architecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="26" customHeight="1">
-      <c r="A13" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B13" s="44" t="inlineStr">
-        <is>
-          <t>Infrastructure Deployment</t>
-        </is>
-      </c>
-      <c r="C13" s="44" t="inlineStr">
-        <is>
-          <t>Hub setup and VPN/ExpressRoute provisioning</t>
-        </is>
-      </c>
-      <c r="D13" s="45" t="n">
-        <v>80</v>
-      </c>
-      <c r="E13" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F13" s="46" t="n">
-        <v>225</v>
-      </c>
-      <c r="G13" s="46">
-        <f>D13*F13</f>
-        <v/>
-      </c>
-      <c r="H13" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I13" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J13" s="46">
-        <f>G13</f>
-        <v/>
-      </c>
-      <c r="K13" s="44" t="inlineStr">
-        <is>
-          <t>One-time deployment</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="26" customHeight="1">
-      <c r="A14" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B14" s="48" t="inlineStr">
-        <is>
-          <t>Network Security Configuration</t>
-        </is>
-      </c>
-      <c r="C14" s="48" t="inlineStr">
-        <is>
-          <t>Firewall policies and DDoS protection setup</t>
-        </is>
-      </c>
-      <c r="D14" s="49" t="n">
-        <v>50</v>
-      </c>
-      <c r="E14" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F14" s="50" t="n">
-        <v>225</v>
-      </c>
-      <c r="G14" s="50">
-        <f>D14*F14</f>
-        <v/>
-      </c>
-      <c r="H14" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I14" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J14" s="50">
-        <f>G14</f>
-        <v/>
-      </c>
-      <c r="K14" s="48" t="inlineStr">
-        <is>
-          <t>One-time security setup</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="26" customHeight="1">
-      <c r="A15" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B15" s="44" t="inlineStr">
-        <is>
-          <t>Branch Migration</t>
-        </is>
-      </c>
-      <c r="C15" s="44" t="inlineStr">
-        <is>
-          <t>Migrate branch offices to Virtual WAN architecture</t>
-        </is>
-      </c>
-      <c r="D15" s="45" t="n">
-        <v>70</v>
-      </c>
-      <c r="E15" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F15" s="46" t="n">
-        <v>200</v>
-      </c>
-      <c r="G15" s="46">
-        <f>D15*F15</f>
-        <v/>
-      </c>
-      <c r="H15" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I15" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J15" s="46">
-        <f>G15</f>
-        <v/>
-      </c>
-      <c r="K15" s="44" t="inlineStr">
-        <is>
-          <t>One-time migration</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="26" customHeight="1">
-      <c r="A16" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B16" s="48" t="inlineStr">
-        <is>
-          <t>Testing Validation</t>
-        </is>
-      </c>
-      <c r="C16" s="48" t="inlineStr">
-        <is>
-          <t>Performance testing and failover validation</t>
-        </is>
-      </c>
-      <c r="D16" s="49" t="n">
-        <v>40</v>
-      </c>
-      <c r="E16" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F16" s="50" t="n">
-        <v>175</v>
-      </c>
-      <c r="G16" s="50">
-        <f>D16*F16</f>
-        <v/>
-      </c>
-      <c r="H16" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I16" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J16" s="50">
-        <f>G16</f>
-        <v/>
-      </c>
-      <c r="K16" s="48" t="inlineStr">
-        <is>
-          <t>One-time validation</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="26" customHeight="1">
-      <c r="A17" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B17" s="44" t="inlineStr">
-        <is>
-          <t>Training Knowledge Transfer</t>
-        </is>
-      </c>
-      <c r="C17" s="44" t="inlineStr">
-        <is>
-          <t>Network team training on Virtual WAN operations</t>
-        </is>
-      </c>
-      <c r="D17" s="45" t="n">
-        <v>30</v>
-      </c>
-      <c r="E17" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F17" s="46" t="n">
-        <v>200</v>
-      </c>
-      <c r="G17" s="46">
-        <f>D17*F17</f>
-        <v/>
-      </c>
-      <c r="H17" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I17" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J17" s="46">
-        <f>G17</f>
-        <v/>
-      </c>
-      <c r="K17" s="44" t="inlineStr">
-        <is>
-          <t>One-time training</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="26" customHeight="1">
-      <c r="A18" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B18" s="48" t="inlineStr">
-        <is>
-          <t>Project Management</t>
-        </is>
-      </c>
-      <c r="C18" s="48" t="inlineStr">
-        <is>
-          <t>End-to-end project delivery coordination</t>
-        </is>
-      </c>
-      <c r="D18" s="49" t="n">
-        <v>50</v>
-      </c>
-      <c r="E18" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F18" s="50" t="n">
-        <v>225</v>
-      </c>
-      <c r="G18" s="50">
-        <f>D18*F18</f>
-        <v/>
-      </c>
-      <c r="H18" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I18" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J18" s="50">
-        <f>G18</f>
-        <v/>
-      </c>
-      <c r="K18" s="48" t="inlineStr">
-        <is>
-          <t>One-time oversight</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="26" customHeight="1">
-      <c r="A19" s="51" t="inlineStr">
+      <c r="A11" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B19" s="52" t="n"/>
-      <c r="C19" s="52" t="n"/>
-      <c r="D19" s="52" t="n"/>
-      <c r="E19" s="52" t="n"/>
-      <c r="F19" s="52" t="n"/>
-      <c r="G19" s="53">
-        <f>SUM(G3:G18)</f>
-        <v/>
-      </c>
-      <c r="H19" s="53">
-        <f>SUM(H3:H18)</f>
-        <v/>
-      </c>
-      <c r="I19" s="53">
-        <f>SUM(I3:I18)</f>
-        <v/>
-      </c>
-      <c r="J19" s="53">
-        <f>SUM(J3:J18)</f>
-        <v/>
-      </c>
-      <c r="K19" s="52" t="n"/>
+      <c r="B11" s="52" t="n"/>
+      <c r="C11" s="52" t="n"/>
+      <c r="D11" s="52" t="n"/>
+      <c r="E11" s="52" t="n"/>
+      <c r="F11" s="52" t="n"/>
+      <c r="G11" s="53">
+        <f>SUM(G3:G10)</f>
+        <v/>
+      </c>
+      <c r="H11" s="53">
+        <f>SUM(H3:H10)</f>
+        <v/>
+      </c>
+      <c r="I11" s="53">
+        <f>SUM(I3:I10)</f>
+        <v/>
+      </c>
+      <c r="J11" s="53">
+        <f>SUM(J3:J10)</f>
+        <v/>
+      </c>
+      <c r="K11" s="52" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K19"/>
+  <autoFilter ref="A2:K11"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -2248,7 +1856,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -2308,7 +1916,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Hardware/Equipment</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -2360,7 +1968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2425,7 +2033,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="46">
@@ -2516,69 +2124,38 @@
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C6" s="50">
-        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D6" s="50">
-        <f>B6+C6</f>
-        <v/>
-      </c>
-      <c r="E6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G6" s="50">
-        <f>D6+E6+F6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="51" t="inlineStr">
+      <c r="A6" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="53">
-        <f>SUM(B3:B6)</f>
-        <v/>
-      </c>
-      <c r="C7" s="53">
-        <f>SUM(C3:C6)</f>
-        <v/>
-      </c>
-      <c r="D7" s="53">
-        <f>SUM(D3:D6)</f>
-        <v/>
-      </c>
-      <c r="E7" s="53">
-        <f>SUM(E3:E6)</f>
-        <v/>
-      </c>
-      <c r="F7" s="53">
-        <f>SUM(F3:F6)</f>
-        <v/>
-      </c>
-      <c r="G7" s="53">
-        <f>SUM(G3:G6)</f>
+      <c r="B6" s="53">
+        <f>SUM(B3:B5)</f>
+        <v/>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM(C3:C5)</f>
+        <v/>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM(D3:D5)</f>
+        <v/>
+      </c>
+      <c r="E6" s="53">
+        <f>SUM(E3:E5)</f>
+        <v/>
+      </c>
+      <c r="F6" s="53">
+        <f>SUM(F3:F5)</f>
+        <v/>
+      </c>
+      <c r="G6" s="53">
+        <f>SUM(G3:G5)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G7"/>
+  <autoFilter ref="A2:G6"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
